--- a/scrapydData/Data/zero trust/zero trust_papers.xlsx
+++ b/scrapydData/Data/zero trust/zero trust_papers.xlsx
@@ -589,76 +589,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-12-11T13:11:20Z</t>
+          <t>2021-03-27T01:40:19Z</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Towards Secure and Leak-Free Workflows Using Microservice Isolation</t>
+          <t>A Synergistic Approach to Digital Privacy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Loïc Miller, Pascal Mérindol, Antoine Gallais, Cristel Pelsser</t>
+          <t>Christopher Gorog</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>Data leaks and breaches are on the rise. They result in huge losses of money
-for businesses like the movie industry, as well as a loss of user privacy for
-businesses dealing with user data like the pharmaceutical industry. Preventing
-data exposures is challenging, because the causes for such events are various,
-ranging from hacking to misconfigured databases. Alongside the surge in data
-exposures, the recent rise of microservices as a paradigm brings the need to
-not only secure traffic at the border of the network, but also internally,
-pressing the adoption of new security models such as zero-trust to secure
-business processes.
-  Business processes can be modeled as workflows, where the owner of the data
-at risk interacts with contractors to realize a sequence of tasks on this data.
-In this paper, we show how those workflows can be enforced while preventing
-data exposure. Following the principles of zero-trust, we develop an
-infrastructure using the isolation provided by a microservice architecture, to
-enforce owner policy. We show that our infrastructure is resilient to the set
-of attacks considered in our security model. We implement a simple, yet
-realistic, workflow with our infrastructure in a publicly available proof of
-concept. We then verify that the specified policy is correctly enforced by
-testing the deployment for policy violations, and estimate the overhead cost of
-authorization.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2012.06300v1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2012.06300v1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2012.06300v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2021-03-27T01:40:19Z</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>A Synergistic Approach to Digital Privacy</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Christopher Gorog</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>This paper outlines an approach for IEEE to take leadership for digital
 privacy to align many existing IEEE Societies and efforts in the areas of
@@ -688,19 +632,75 @@
 technologies.</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2103.14783v1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2103.14783v1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2103.14783v1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-12-11T13:11:20Z</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Towards Secure and Leak-Free Workflows Using Microservice Isolation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Loïc Miller, Pascal Mérindol, Antoine Gallais, Cristel Pelsser</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Data leaks and breaches are on the rise. They result in huge losses of money
+for businesses like the movie industry, as well as a loss of user privacy for
+businesses dealing with user data like the pharmaceutical industry. Preventing
+data exposures is challenging, because the causes for such events are various,
+ranging from hacking to misconfigured databases. Alongside the surge in data
+exposures, the recent rise of microservices as a paradigm brings the need to
+not only secure traffic at the border of the network, but also internally,
+pressing the adoption of new security models such as zero-trust to secure
+business processes.
+  Business processes can be modeled as workflows, where the owner of the data
+at risk interacts with contractors to realize a sequence of tasks on this data.
+In this paper, we show how those workflows can be enforced while preventing
+data exposure. Following the principles of zero-trust, we develop an
+infrastructure using the isolation provided by a microservice architecture, to
+enforce owner policy. We show that our infrastructure is resilient to the set
+of attacks considered in our security model. We implement a simple, yet
+realistic, workflow with our infrastructure in a publicly available proof of
+concept. We then verify that the specified policy is correctly enforced by
+testing the deployment for policy violations, and estimate the overhead cost of
+authorization.</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2103.14783v1</t>
+          <t>http://arxiv.org/abs/2012.06300v1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>http://arxiv.org/pdf/2103.14783v1</t>
+          <t>http://arxiv.org/pdf/2012.06300v1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['http://arxiv.org/pdf/2103.14783v1']</t>
+          <t>['http://arxiv.org/pdf/2012.06300v1']</t>
         </is>
       </c>
     </row>
@@ -1519,74 +1519,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-05-03T15:05:58Z</t>
+          <t>2022-04-05T15:46:31Z</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>Physical Layer Security for 6G Systems why it is needed and how to make
-  it happen</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Arsenia Chorti</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Sixth generations (6G) systems will be required to meet diverse constraints
-in an integrated ground-air-space global network. In particular, meeting overly
-aggressive latency constraints, operating in massive connectivity regimes, with
-low energy footprint and low computational effort, while providing explicit
-security guarantees, can be challenging. In this setting, quality of security
-(QoSec) is envisioned as a flexible security framework for future networks with
-highly diverse non-functional requirements. Mirroring the differentiated
-services (DiffServ) networking paradigm, different security levels could be
-conceptualized, moving away from static security controls, captured currently
-in zero-trust security architectures. In parallel, the integration of
-communications and sensing, along with embedded (on-device) AI, can provide the
-foundations for building autonomous and adaptive security controls,
-orchestrated by a vertical security plane in coordination with a vertical
-semantic plane. It is in this framework, that we envision the incorporation of
-physical layer security (PLS) schemes in 6G security protocols, introducing
-security controls at all layers, for the first time.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2205.01552v1</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2205.01552v1</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2205.01552v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2022-04-05T15:46:31Z</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
         <is>
           <t>ZETAR: Modeling and Computational Design of Strategic and Adaptive
   Compliance Policies</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Linan Huang, Quanyan Zhu</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Compliance management plays an important role in mitigating insider threats.
 Incentive design is a proactive and non-invasive approach to achieving
@@ -1613,19 +1560,72 @@
 hygiene and insiders' satisfaction.</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2204.02294v2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2204.02294v2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2204.02294v2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022-05-03T15:05:58Z</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physical Layer Security for 6G Systems why it is needed and how to make
+  it happen</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Arsenia Chorti</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sixth generations (6G) systems will be required to meet diverse constraints
+in an integrated ground-air-space global network. In particular, meeting overly
+aggressive latency constraints, operating in massive connectivity regimes, with
+low energy footprint and low computational effort, while providing explicit
+security guarantees, can be challenging. In this setting, quality of security
+(QoSec) is envisioned as a flexible security framework for future networks with
+highly diverse non-functional requirements. Mirroring the differentiated
+services (DiffServ) networking paradigm, different security levels could be
+conceptualized, moving away from static security controls, captured currently
+in zero-trust security architectures. In parallel, the integration of
+communications and sensing, along with embedded (on-device) AI, can provide the
+foundations for building autonomous and adaptive security controls,
+orchestrated by a vertical security plane in coordination with a vertical
+semantic plane. It is in this framework, that we envision the incorporation of
+physical layer security (PLS) schemes in 6G security protocols, introducing
+security controls at all layers, for the first time.</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2204.02294v2</t>
+          <t>http://arxiv.org/abs/2205.01552v1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>http://arxiv.org/pdf/2204.02294v2</t>
+          <t>http://arxiv.org/pdf/2205.01552v1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['http://arxiv.org/pdf/2204.02294v2']</t>
+          <t>['http://arxiv.org/pdf/2205.01552v1']</t>
         </is>
       </c>
     </row>
@@ -1920,21 +1920,71 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>2022-09-22T15:45:48Z</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Linking Contexts from Distinct Data Sources in Zero Trust Federation</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Masato Hirai, Daisuke Kotani, Yasuo Okabe</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>An access control model called Zero Trust Architecture (ZTA) has attracted
+attention. ZTA uses information of users and devices, called context, for
+authentication and authorization. Zero Trust Federation (ZTF) has been proposed
+as a framework for extending an idea of identity federation to support ZTA. ZTF
+defines CAP as the entity that collects context and provides it to each
+organization (Relying Party; RP) that needs context for authorization based on
+ZTA. To improve the quality of authorization, CAPs need to collect context from
+various data sources. However, ZTF did not provide a method for collecting
+context from data sources other than RP. In this research, as a general model
+for collecting context in ZTF, we propose a method of linking identifiers
+between the data source and CAP. This method provides a way to collect context
+from some of such data sources in ZTF. Then, we implemented our method using
+RADIUS and MDM as data sources and confirmed that their contexts could be
+collected and used.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2209.11108v1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2209.11108v1</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2209.11108v1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>2022-09-22T14:16:55Z</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Zero Trust Federation: Sharing Context under User Control toward Zero
   Trust in Identity Federation</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Koudai Hatakeyama, Daisuke Kotani, Yasuo Okabe</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>To securely control access to systems, the concept of Zero Trust has been
 proposed. Access Control based on Zero Trust concept removes implicit trust and
@@ -1955,69 +2005,19 @@
 the ZTF prototype and evaluated the capability of ZTF in 4 use-cases.</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2209.11025v1</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2209.11025v1</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2209.11025v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2022-09-22T15:45:48Z</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Linking Contexts from Distinct Data Sources in Zero Trust Federation</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Masato Hirai, Daisuke Kotani, Yasuo Okabe</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>An access control model called Zero Trust Architecture (ZTA) has attracted
-attention. ZTA uses information of users and devices, called context, for
-authentication and authorization. Zero Trust Federation (ZTF) has been proposed
-as a framework for extending an idea of identity federation to support ZTA. ZTF
-defines CAP as the entity that collects context and provides it to each
-organization (Relying Party; RP) that needs context for authorization based on
-ZTA. To improve the quality of authorization, CAPs need to collect context from
-various data sources. However, ZTF did not provide a method for collecting
-context from data sources other than RP. In this research, as a general model
-for collecting context in ZTF, we propose a method of linking identifiers
-between the data source and CAP. This method provides a way to collect context
-from some of such data sources in ZTF. Then, we implemented our method using
-RADIUS and MDM as data sources and confirmed that their contexts could be
-collected and used.</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2209.11108v1</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2209.11108v1</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2209.11108v1']</t>
         </is>
       </c>
     </row>
@@ -4424,21 +4424,70 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>2024-03-08T12:56:10Z</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>vSPACE: Voting in a Scalable, Privacy-Aware and Confidential Election</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Se Elnour, William J Buchanan, Paul Keating, Mwrwan Abubakar, Sirag Elnour</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>The vSPACE experimental proof-of-concept (PoC) on the TrueElect[Anon][Creds]
+protocol presents a novel approach to secure, private, and scalable elections,
+extending the TrueElect and ElectAnon protocols with the integration of
+AnonCreds SSI (Self-Sovereign Identity). Such a protocol PoC is situated within
+a Zero-Trust Architecture (ZTA) and leverages confidential computing,
+continuous authentication, multi-party computation (MPC), and well-architected
+framework (WAF) principles to address the challenges of cybersecurity, privacy,
+and trust over IP (ToIP) protection. Employing a Kubernetes confidential
+cluster within an Enterprise-Scale Landing Zone (ESLZ), vSPACE integrates
+Distributed Ledger Technology (DLT) for immutable and certifiable audit trails.
+The Infrastructure as Code (IaC) model ensures rapid deployment, consistent
+management, and adherence to security standards, making vSPACE a future-proof
+solution for digital voting systems.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2403.05275v1</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2403.05275v1</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2403.05275v1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>2024-03-11T02:47:21Z</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>A Zero Trust Framework for Realization and Defense Against Generative AI
   Attacks in Power Grid</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Md. Shirajum Munir, Sravanthi Proddatoori, Manjushree Muralidhara, Walid Saad, Zhu Han, Sachin Shetty</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Understanding the potential of generative AI (GenAI)-based attacks on the
 power grid is a fundamental challenge that must be addressed in order to
@@ -4463,40 +4512,40 @@
 95% stable PGSC, and a 99% confidence in defense against GenAI-driven attack.</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2403.06388v1</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2403.06388v1</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2403.06388v1']</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>2024-03-18T15:45:14Z</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>ASOP: A Sovereign and Secure Device Onboarding Protocol for Cloud-based
   IoT Services</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Khan Reaz, Gerhard Wunder</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>The existing high-friction device onboarding process hinders the promise and
 potentiality of Internet of Things (IoT). Even after several attempts by
@@ -4524,68 +4573,19 @@
 cryptographic suite (CRYSTALS) to secure connection and messages.</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2403.13020v1</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2403.13020v1</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2403.13020v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2024-03-08T12:56:10Z</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>vSPACE: Voting in a Scalable, Privacy-Aware and Confidential Election</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Se Elnour, William J Buchanan, Paul Keating, Mwrwan Abubakar, Sirag Elnour</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>The vSPACE experimental proof-of-concept (PoC) on the TrueElect[Anon][Creds]
-protocol presents a novel approach to secure, private, and scalable elections,
-extending the TrueElect and ElectAnon protocols with the integration of
-AnonCreds SSI (Self-Sovereign Identity). Such a protocol PoC is situated within
-a Zero-Trust Architecture (ZTA) and leverages confidential computing,
-continuous authentication, multi-party computation (MPC), and well-architected
-framework (WAF) principles to address the challenges of cybersecurity, privacy,
-and trust over IP (ToIP) protection. Employing a Kubernetes confidential
-cluster within an Enterprise-Scale Landing Zone (ESLZ), vSPACE integrates
-Distributed Ledger Technology (DLT) for immutable and certifiable audit trails.
-The Infrastructure as Code (IaC) model ensures rapid deployment, consistent
-management, and adherence to security standards, making vSPACE a future-proof
-solution for digital voting systems.</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2403.05275v1</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2403.05275v1</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2403.05275v1']</t>
         </is>
       </c>
     </row>
@@ -4802,78 +4802,21 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2024-05-23T18:19:10Z</t>
+          <t>2024-05-20T17:02:18Z</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>P4Control: Line-Rate Cross-Host Attack Prevention via In-Network
-  Information Flow Control Enabled by Programmable Switches and eBPF</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Osama Bajaber, Bo Ji, Peng Gao</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Modern targeted attacks such as Advanced Persistent Threats use multiple
-hosts as stepping stones and move laterally across them to gain deeper access
-to the network. However, existing defenses lack end-to-end information flow
-visibility across hosts and cannot block cross-host attack traffic in real
-time. In this paper, we propose P4Control, a network defense system that
-precisely confines end-to-end information flows in a network and prevents
-cross-host attacks at line rate. P4Control introduces a novel in-network
-decentralized information flow control (DIFC) mechanism and is the first work
-that enforces DIFC at the network level at network line rate. This is achieved
-through: (1) an in-network primitive based on programmable switches for
-tracking inter-host information flows and enforcing line-rate DIFC policies;
-(2) a lightweight eBPF-based primitive deployed on hosts for tracking
-intra-host information flows. P4Control also provides an expressive policy
-framework for specifying DIFC policies against different attack scenarios. We
-conduct extensive evaluations to show that P4Control can effectively prevent
-cross-host attacks in real time, while maintaining line-rate network
-performance and imposing minimal overhead on the network and host machines. It
-is also noteworthy that P4Control can facilitate the realization of a zero
-trust architecture through its fine-grained least-privilege network access
-control.</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2405.14970v1</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2405.14970v1</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2405.14970v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2024-05-20T17:02:18Z</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
         <is>
           <t>Establishing Trust in the Beyond-5G Core Network using Trusted Execution
   Environments</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Marinos Vomvas, Norbert Ludant, Guevara Noubir</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>The fifth generation (5G) of cellular networks starts a paradigm shift from
 the traditional monolithic system design to a Service Based Architecture, that
@@ -4902,153 +4845,97 @@
 monetary cost evaluation.</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2405.12177v1</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2405.12177v1</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2405.12177v1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-05-23T18:19:10Z</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>P4Control: Line-Rate Cross-Host Attack Prevention via In-Network
+  Information Flow Control Enabled by Programmable Switches and eBPF</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Osama Bajaber, Bo Ji, Peng Gao</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Modern targeted attacks such as Advanced Persistent Threats use multiple
+hosts as stepping stones and move laterally across them to gain deeper access
+to the network. However, existing defenses lack end-to-end information flow
+visibility across hosts and cannot block cross-host attack traffic in real
+time. In this paper, we propose P4Control, a network defense system that
+precisely confines end-to-end information flows in a network and prevents
+cross-host attacks at line rate. P4Control introduces a novel in-network
+decentralized information flow control (DIFC) mechanism and is the first work
+that enforces DIFC at the network level at network line rate. This is achieved
+through: (1) an in-network primitive based on programmable switches for
+tracking inter-host information flows and enforcing line-rate DIFC policies;
+(2) a lightweight eBPF-based primitive deployed on hosts for tracking
+intra-host information flows. P4Control also provides an expressive policy
+framework for specifying DIFC policies against different attack scenarios. We
+conduct extensive evaluations to show that P4Control can effectively prevent
+cross-host attacks in real time, while maintaining line-rate network
+performance and imposing minimal overhead on the network and host machines. It
+is also noteworthy that P4Control can facilitate the realization of a zero
+trust architecture through its fine-grained least-privilege network access
+control.</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2405.12177v1</t>
+          <t>http://arxiv.org/abs/2405.14970v1</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>http://arxiv.org/pdf/2405.12177v1</t>
+          <t>http://arxiv.org/pdf/2405.14970v1</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['http://arxiv.org/pdf/2405.12177v1']</t>
+          <t>['http://arxiv.org/pdf/2405.14970v1']</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2024-06-20T03:12:57Z</t>
+          <t>2024-06-04T10:34:40Z</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>Hierarchical Micro-Segmentations for Zero-Trust Services via Large
-  Language Model (LLM)-enhanced Graph Diffusion</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Yinqiu Liu, Guangyuan Liu, Hongyang Du, Dusit Niyato, Jiawen Kang, Zehui Xiong, Dong In Kim, Xuemin Shen</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>In the rapidly evolving Next-Generation Networking (NGN) era, the adoption of
-zero-trust architectures has become increasingly crucial to protect security.
-However, provisioning zero-trust services in NGNs poses significant challenges,
-primarily due to the environmental complexity and dynamics. Motivated by these
-challenges, this paper explores efficient zero-trust service provisioning using
-hierarchical micro-segmentations. Specifically, we model zero-trust networks
-via hierarchical graphs, thereby jointly considering the resource- and
-trust-level features to optimize service efficiency. We organize such
-zero-trust networks through micro-segmentations, which support granular
-zero-trust policies efficiently. To generate the optimal micro-segmentation, we
-present the Large Language Model-Enhanced Graph Diffusion (LEGD) algorithm,
-which leverages the diffusion process to realize a high-quality generation
-paradigm. Additionally, we utilize policy boosting and Large Language Models
-(LLM) to enable LEGD to optimize the generation policy and understand
-complicated graphical features. Moreover, realizing the unique trustworthiness
-updates or service upgrades in zero-trust NGN, we further present LEGD-Adaptive
-Maintenance (LEGD-AM), providing an adaptive way to perform task-oriented
-fine-tuning on LEGD. Extensive experiments demonstrate that the proposed LEGD
-achieves 90% higher efficiency in provisioning services compared with other
-baselines. Moreover, the LEGD-AM can reduce the service outage time by over
-50%.</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2406.13964v1</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2406.13964v1</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2406.13964v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2024-06-24T23:15:19Z</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Robust Zero Trust Architecture: Joint Blockchain based Federated
-  learning and Anomaly Detection based Framework</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Shiva Raj Pokhrel, Luxing Yang, Sutharshan Rajasegarar, Gang Li</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>This paper introduces a robust zero-trust architecture (ZTA) tailored for the
-decentralized system that empowers efficient remote work and collaboration
-within IoT networks. Using blockchain-based federated learning principles, our
-proposed framework includes a robust aggregation mechanism designed to
-counteract malicious updates from compromised clients, enhancing the security
-of the global learning process. Moreover, secure and reliable trust computation
-is essential for remote work and collaboration. The robust ZTA framework
-integrates anomaly detection and trust computation, ensuring secure and
-reliable device collaboration in a decentralized fashion. We introduce an
-adaptive algorithm that dynamically adjusts to varying user contexts, using
-unsupervised clustering to detect novel anomalies, like zero-day attacks. To
-ensure a reliable and scalable trust computation, we develop an algorithm that
-dynamically adapts to varying user contexts by employing incremental anomaly
-detection and clustering techniques to identify and share local and global
-anomalies between nodes. Future directions include scalability improvements,
-Dirichlet process for advanced anomaly detection, privacy-preserving
-techniques, and the integration of post-quantum cryptographic methods to
-safeguard against emerging quantum threats.</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2406.17172v1</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2406.17172v1</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2406.17172v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2024-06-04T10:34:40Z</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
         <is>
           <t>Age of Trust (AoT): A Continuous Verification Framework for Wireless
   Networks</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Yuquan Xiao, Qinghe Du, Wenchi Cheng, Panagiotis D. Diamantoulakis, George K. Karagiannidis</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Zero Trust is a new security vision for 6G networks that emphasises the
 philosophy of never trust and always verify. However, there is a fundamental
@@ -5075,40 +4962,98 @@
 zero-trust architectures.</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2406.02190v1</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2406.02190v1</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2406.02190v1']</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-06-20T03:12:57Z</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Hierarchical Micro-Segmentations for Zero-Trust Services via Large
+  Language Model (LLM)-enhanced Graph Diffusion</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Yinqiu Liu, Guangyuan Liu, Hongyang Du, Dusit Niyato, Jiawen Kang, Zehui Xiong, Dong In Kim, Xuemin Shen</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>In the rapidly evolving Next-Generation Networking (NGN) era, the adoption of
+zero-trust architectures has become increasingly crucial to protect security.
+However, provisioning zero-trust services in NGNs poses significant challenges,
+primarily due to the environmental complexity and dynamics. Motivated by these
+challenges, this paper explores efficient zero-trust service provisioning using
+hierarchical micro-segmentations. Specifically, we model zero-trust networks
+via hierarchical graphs, thereby jointly considering the resource- and
+trust-level features to optimize service efficiency. We organize such
+zero-trust networks through micro-segmentations, which support granular
+zero-trust policies efficiently. To generate the optimal micro-segmentation, we
+present the Large Language Model-Enhanced Graph Diffusion (LEGD) algorithm,
+which leverages the diffusion process to realize a high-quality generation
+paradigm. Additionally, we utilize policy boosting and Large Language Models
+(LLM) to enable LEGD to optimize the generation policy and understand
+complicated graphical features. Moreover, realizing the unique trustworthiness
+updates or service upgrades in zero-trust NGN, we further present LEGD-Adaptive
+Maintenance (LEGD-AM), providing an adaptive way to perform task-oriented
+fine-tuning on LEGD. Extensive experiments demonstrate that the proposed LEGD
+achieves 90% higher efficiency in provisioning services compared with other
+baselines. Moreover, the LEGD-AM can reduce the service outage time by over
+50%.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2406.13964v1</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2406.13964v1</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2406.13964v1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>2024-06-30T09:06:49Z</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>BAZAM: A Blockchain-Assisted Zero-Trust Authentication in Multi-UAV
   Wireless Networks</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Mingyue Xie, Zheng Chang, Osama Alfarraj, Keping Yu, Tao Chen, Hongwei Li</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Unmanned aerial vehicles (UAVs) are vulnerable to interception and attacks
 when operated remotely without a unified and efficient identity authentication.
@@ -5130,94 +5075,40 @@
 we demonstrate the effectiveness and efficiency of the proposed BAZAM.</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2407.00630v1</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2407.00630v1</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2407.00630v1']</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2024-07-08T15:36:30Z</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Enabling Performant and Secure EDA as a Service in Public Clouds Using
-  Confidential Containers</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Mengmei Ye, Derren Dunn, Daniele Buono, Angelo Ruocco, Claudio Carvalho, Tobin Feldman-fitzthum, Hubertus Franke, James Bottomley</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Increasingly, business opportunities available to fabless design teams in the
-semiconductor industry far exceed those addressable with on-prem compute
-resources. An attractive option to capture these electronic design automation
-(EDA) design opportunities is through public cloud bursting. However, security
-concerns with public cloud bursting arise from having to protect process design
-kits, third party intellectual property, and new design data for semiconductor
-devices and chips. One way to address security concerns for public cloud
-bursting is to leverage confidential containers for EDA workloads. Confidential
-containers add zero trust computing elements to significantly reduce the
-probability of intellectual property escapes. A key concern that often follows
-security discussions is whether EDA workload performance will suffer with
-confidential computing. In this work we demonstrate a full set of EDA
-confidential containers and their deployment and characterize performance
-impacts of confidential elements of the flow including storage and networking.
-A complete end-to-end confidential container-based EDA workload exhibits 7.13%
-and 2.05% performance overheads over bare-metal container and VM based
-solutions, respectively.</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2407.06040v1</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2407.06040v1</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2407.06040v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>2024-08-12T14:33:54Z</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Hi-SAM: A high-scalable authentication model for satellite-ground
   Zero-Trust system using mean field game</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Xuesong Wu, Tianshuai Zheng, Runfang Wu, Jie Ren, Junyan Guo, Ye Du</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>As more and more Internet of Thing (IoT) devices are connected to satellite
 networks, the Zero-Trust Architecture brings dynamic security to the
@@ -5233,41 +5124,41 @@
 detection efficiency.</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2408.06185v1</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2408.06185v1</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2408.06185v1']</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>2024-08-29T20:18:00Z</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>A Prototype Model of Zero-Trust Architecture Blockchain with
   EigenTrust-Based Practical Byzantine Fault Tolerance Protocol to Manage
   Decentralized Clinical Trials</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>Ashok Kumar Peepliwall, Hari Mohan Pandey, Surya Prakash, Anand A Mahajan, Sudhinder Singh Chowhan, Vinesh Kumar, Rahul Sharma</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>The COVID-19 pandemic necessitated the emergence of decentralized Clinical
 Trials (DCTs) due to patient retention, accelerate trials, improve data
@@ -5290,95 +5181,39 @@
 evaluation has been done to evaluate the quality of the system.</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2408.16885v1</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2408.16885v1</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2408.16885v1']</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2024-10-23T21:53:16Z</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Enhancing Enterprise Security with Zero Trust Architecture</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Mahmud Hasan</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Zero Trust Architecture (ZTA) represents a transformative approach to modern
-cybersecurity, directly addressing the shortcomings of traditional
-perimeter-based security models. With the rise of cloud computing, remote work,
-and increasingly sophisticated cyber threats, perimeter defenses have proven
-ineffective at mitigating risks, particularly those involving insider threats
-and lateral movement within networks. ZTA shifts the security paradigm by
-assuming that no user, device, or system can be trusted by default, requiring
-continuous verification and the enforcement of least privilege access for all
-entities. This paper explores the key components of ZTA, such as identity and
-access management (IAM), micro-segmentation, continuous monitoring, and
-behavioral analytics, and evaluates their effectiveness in reducing
-vulnerabilities across diverse sectors, including finance, healthcare, and
-technology. Through case studies and industry reports, the advantages of ZTA in
-mitigating insider threats and minimizing attack surfaces are discussed.
-Additionally, the paper addresses the challenges faced during ZTA
-implementation, such as scalability, integration complexity, and costs, while
-providing best practices for overcoming these obstacles. Lastly, future
-research directions focusing on emerging technologies like AI, machine
-learning, blockchain, and their integration into ZTA are examined to enhance
-its capabilities further.</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2410.18291v1</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2410.18291v1</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2410.18291v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>2024-10-14T14:11:37Z</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>ZONIA: a Zero-Trust Oracle System for Blockchain IoT Applications</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Lorenzo Gigli, Ivan Zyrianoff, Federico Montori, Luca Sciullo, Carlos Kamienski, Marco Di Felice</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>The rapid expansion of the Internet of Things (IoT) has led to significant
 data reliability and system transparency challenges, aggravated by the
@@ -5403,40 +5238,96 @@
 behavior.</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2410.10532v1</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2410.10532v1</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2410.10532v1']</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-10-23T21:53:16Z</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Enhancing Enterprise Security with Zero Trust Architecture</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Mahmud Hasan</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Zero Trust Architecture (ZTA) represents a transformative approach to modern
+cybersecurity, directly addressing the shortcomings of traditional
+perimeter-based security models. With the rise of cloud computing, remote work,
+and increasingly sophisticated cyber threats, perimeter defenses have proven
+ineffective at mitigating risks, particularly those involving insider threats
+and lateral movement within networks. ZTA shifts the security paradigm by
+assuming that no user, device, or system can be trusted by default, requiring
+continuous verification and the enforcement of least privilege access for all
+entities. This paper explores the key components of ZTA, such as identity and
+access management (IAM), micro-segmentation, continuous monitoring, and
+behavioral analytics, and evaluates their effectiveness in reducing
+vulnerabilities across diverse sectors, including finance, healthcare, and
+technology. Through case studies and industry reports, the advantages of ZTA in
+mitigating insider threats and minimizing attack surfaces are discussed.
+Additionally, the paper addresses the challenges faced during ZTA
+implementation, such as scalability, integration complexity, and costs, while
+providing best practices for overcoming these obstacles. Lastly, future
+research directions focusing on emerging technologies like AI, machine
+learning, blockchain, and their integration into ZTA are examined to enhance
+its capabilities further.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2410.18291v1</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2410.18291v1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2410.18291v1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>2024-10-24T03:57:45Z</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Federated Single Sign-On and Zero Trust Co-design for AI and HPC Digital
   Research Infrastructures</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Sadaf R. Alam, Christopher Woods, Matt Williams, Dave Moore, Isaac Prior, Ethan Williams, Anna Price, James Womack, Simon McIntosh-Smith, Fan Yang-Turner, Matt Pryor, Ilja Livenson</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Scientific workflows have become highly heterogenous, leveraging distributed
 facilities such as High Performance Computing (HPC), Artificial Intelligence
@@ -5456,39 +5347,39 @@
 demonstrating IAM workflows for different roles.</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2410.18411v3</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2410.18411v3</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2410.18411v3']</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>2024-10-27T22:01:50Z</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>Zero-Trust Network Access (ZTNA)</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Vasilios Mavroudis</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Zero-Trust Network Access (ZTNA) marks a significant shift in network
 security by adopting a "never trust, always verify" approach. This work
@@ -5501,40 +5392,40 @@
 highlighting open challenges and research directions.</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2410.20611v1</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2410.20611v1</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2410.20611v1']</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>2024-10-29T09:06:13Z</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Authentication and identity management based on zero trust security
   model in micro-cloud environment</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Ivana Kovacevic, Milan Stojkov, Milos Simic</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>The abilities of traditional perimeter-based security architectures are
 rapidly decreasing as more enterprise assets are moved toward the cloud
@@ -5554,40 +5445,40 @@
 solution.</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2410.21870v1</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2410.21870v1</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2410.21870v1']</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>2024-11-04T16:57:33Z</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Technical Report: Performance Comparison of Service Mesh Frameworks: the
   MTLS Test Case</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Anat Bremler Barr, Ofek Lavi, Yaniv Naor, Sanjeev Rampal, Jhonatan Tavori</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Service Mesh has become essential for modern cloud-native applications by
 abstracting communication between microservices and providing zero-trust
@@ -5611,19 +5502,128 @@
 performance.</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2411.02267v1</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2411.02267v1</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2411.02267v1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-06-24T23:15:19Z</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Robust Zero Trust Architecture: Joint Blockchain based Federated
+  learning and Anomaly Detection based Framework</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Shiva Raj Pokhrel, Luxing Yang, Sutharshan Rajasegarar, Gang Li</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>This paper introduces a robust zero-trust architecture (ZTA) tailored for the
+decentralized system that empowers efficient remote work and collaboration
+within IoT networks. Using blockchain-based federated learning principles, our
+proposed framework includes a robust aggregation mechanism designed to
+counteract malicious updates from compromised clients, enhancing the security
+of the global learning process. Moreover, secure and reliable trust computation
+is essential for remote work and collaboration. The robust ZTA framework
+integrates anomaly detection and trust computation, ensuring secure and
+reliable device collaboration in a decentralized fashion. We introduce an
+adaptive algorithm that dynamically adjusts to varying user contexts, using
+unsupervised clustering to detect novel anomalies, like zero-day attacks. To
+ensure a reliable and scalable trust computation, we develop an algorithm that
+dynamically adapts to varying user contexts by employing incremental anomaly
+detection and clustering techniques to identify and share local and global
+anomalies between nodes. Future directions include scalability improvements,
+Dirichlet process for advanced anomaly detection, privacy-preserving
+techniques, and the integration of post-quantum cryptographic methods to
+safeguard against emerging quantum threats.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2406.17172v1</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2406.17172v1</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2406.17172v1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-07-08T15:36:30Z</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Enabling Performant and Secure EDA as a Service in Public Clouds Using
+  Confidential Containers</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Mengmei Ye, Derren Dunn, Daniele Buono, Angelo Ruocco, Claudio Carvalho, Tobin Feldman-fitzthum, Hubertus Franke, James Bottomley</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Increasingly, business opportunities available to fabless design teams in the
+semiconductor industry far exceed those addressable with on-prem compute
+resources. An attractive option to capture these electronic design automation
+(EDA) design opportunities is through public cloud bursting. However, security
+concerns with public cloud bursting arise from having to protect process design
+kits, third party intellectual property, and new design data for semiconductor
+devices and chips. One way to address security concerns for public cloud
+bursting is to leverage confidential containers for EDA workloads. Confidential
+containers add zero trust computing elements to significantly reduce the
+probability of intellectual property escapes. A key concern that often follows
+security discussions is whether EDA workload performance will suffer with
+confidential computing. In this work we demonstrate a full set of EDA
+confidential containers and their deployment and characterize performance
+impacts of confidential elements of the flow including storage and networking.
+A complete end-to-end confidential container-based EDA workload exhibits 7.13%
+and 2.05% performance overheads over bare-metal container and VM based
+solutions, respectively.</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2411.02267v1</t>
+          <t>http://arxiv.org/abs/2407.06040v1</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>http://arxiv.org/pdf/2411.02267v1</t>
+          <t>http://arxiv.org/pdf/2407.06040v1</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['http://arxiv.org/pdf/2411.02267v1']</t>
+          <t>['http://arxiv.org/pdf/2407.06040v1']</t>
         </is>
       </c>
     </row>
@@ -5800,68 +5800,21 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2024-11-19T01:58:40Z</t>
+          <t>2024-11-20T16:42:14Z</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>Microsegmented Cloud Network Architecture Using Open-Source Tools for a
-  Zero Trust Foundation</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Sunil Arora, John Hastings</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>This paper presents a multi-cloud networking architecture built on zero trust
-principles and micro-segmentation to provide secure connectivity with
-authentication, authorization, and encryption in transit. The proposed design
-includes the multi-cloud network to support a wide range of applications and
-workload use cases, compute resources including containers, virtual machines,
-and cloud-native services, including IaaS (Infrastructure as a Service (IaaS),
-PaaS (Platform as a service). Furthermore, open-source tools provide
-flexibility, agility, and independence from locking to one vendor technology.
-The paper provides a secure architecture with micro-segmentation and follows
-zero trust principles to solve multi-fold security and operational challenges.</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2411.12162v1</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2411.12162v1</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2411.12162v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2024-11-20T16:42:14Z</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
         <is>
           <t>Blockchain-Enhanced Framework for Secure Third-Party Vendor Risk
   Management and Vigilant Security Controls</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Deepti Gupta, Lavanya Elluri, Avi Jain, Shafika Showkat Moni, Omer Aslan</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>In an era of heightened digital interconnectedness, businesses increasingly
 rely on third-party vendors to enhance their operational capabilities. However,
@@ -5886,40 +5839,40 @@
 risks, streamline compliance, and enhance their overall security posture.</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2411.13447v1</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2411.13447v1</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2411.13447v1']</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>2024-11-22T15:49:27Z</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>ZT-SDN: An ML-powered Zero-Trust Architecture for Software-Defined
   Networks</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>Charalampos Katsis, Elisa Bertino</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Zero Trust (ZT) is a security paradigm aiming to curtail an attacker's
 lateral movements within a network by implementing least-privilege and
@@ -5944,19 +5897,66 @@
 network's performance when applied in an SDN environment.</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2411.15020v1</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2411.15020v1</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2411.15020v1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-11-19T01:58:40Z</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Microsegmented Cloud Network Architecture Using Open-Source Tools for a
+  Zero Trust Foundation</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sunil Arora, John Hastings</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>This paper presents a multi-cloud networking architecture built on zero trust
+principles and micro-segmentation to provide secure connectivity with
+authentication, authorization, and encryption in transit. The proposed design
+includes the multi-cloud network to support a wide range of applications and
+workload use cases, compute resources including containers, virtual machines,
+and cloud-native services, including IaaS (Infrastructure as a Service (IaaS),
+PaaS (Platform as a service). Furthermore, open-source tools provide
+flexibility, agility, and independence from locking to one vendor technology.
+The paper provides a secure architecture with micro-segmentation and follows
+zero trust principles to solve multi-fold security and operational challenges.</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2411.15020v1</t>
+          <t>http://arxiv.org/abs/2411.12162v1</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>http://arxiv.org/pdf/2411.15020v1</t>
+          <t>http://arxiv.org/pdf/2411.12162v1</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['http://arxiv.org/pdf/2411.15020v1']</t>
+          <t>['http://arxiv.org/pdf/2411.12162v1']</t>
         </is>
       </c>
     </row>
@@ -6117,22 +6117,82 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>2025-01-10T15:35:02Z</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Autonomous Identity-Based Threat Segmentation in Zero Trust
+  Architectures</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sina Ahmadi</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Zero Trust Architectures (ZTA) fundamentally redefine network security by
+adopting a "trust nothing, verify everything" approach that requires identity
+verification for all access. Conventional discrete access control measures have
+proven inadequate since they do not consider evolving user activities and
+contextual threats, leading to internal threats and enhanced attacks. This
+research applies the proposed AI-driven, autonomous, identity-based threat
+segmentation in ZTA, along with real-time identity analytics for fine-grained,
+real-time mechanisms. Some of the sharp practices include using the behavioral
+analytics approach to provide real-time risk scores, such as analyzing the
+patterns used for logging into the system, the access sought, and the resources
+used. Permissions are adjusted using machine learning models that take into
+account context-aware factors like geolocation, device type, and access time.
+Automated threat segmentation helps analysts identify multiple compromised
+identities in real-time, thus minimizing the likelihood of a breach advancing.
+The system's use cases are based on real scenarios; for example, insider
+threats in global offices demonstrate how compromised accounts are detected and
+locked. This work outlines measures to address privacy issues, false positives,
+and scalability concerns. This research enhances the security of other critical
+areas of computer systems by providing dynamic access governance, minimizing
+insider threats, and supporting dynamic policy enforcement while ensuring that
+the needed balance between security and user productivity remains a top
+priority. We prove via comparative analyses that the model is precise and
+scalable.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2501.06281v1</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2501.06281v1</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2501.06281v1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>2025-01-07T07:59:00Z</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>Dynamic Authentication and Granularized Authorization with a
   Cross-Domain Zero Trust Architecture for Federated Learning in Large-Scale
   IoT Networks</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Xiaoyu Ma, Fang Fang, Xianbin Wang</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>With the increasing number of connected devices and complex networks
 involved, current domain-specific security techniques become inadequate for
@@ -6159,155 +6219,40 @@
 schemes.</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2501.03601v1</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2501.03601v1</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2501.03601v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2025-01-10T15:35:02Z</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Autonomous Identity-Based Threat Segmentation in Zero Trust
-  Architectures</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Sina Ahmadi</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Zero Trust Architectures (ZTA) fundamentally redefine network security by
-adopting a "trust nothing, verify everything" approach that requires identity
-verification for all access. Conventional discrete access control measures have
-proven inadequate since they do not consider evolving user activities and
-contextual threats, leading to internal threats and enhanced attacks. This
-research applies the proposed AI-driven, autonomous, identity-based threat
-segmentation in ZTA, along with real-time identity analytics for fine-grained,
-real-time mechanisms. Some of the sharp practices include using the behavioral
-analytics approach to provide real-time risk scores, such as analyzing the
-patterns used for logging into the system, the access sought, and the resources
-used. Permissions are adjusted using machine learning models that take into
-account context-aware factors like geolocation, device type, and access time.
-Automated threat segmentation helps analysts identify multiple compromised
-identities in real-time, thus minimizing the likelihood of a breach advancing.
-The system's use cases are based on real scenarios; for example, insider
-threats in global offices demonstrate how compromised accounts are detected and
-locked. This work outlines measures to address privacy issues, false positives,
-and scalability concerns. This research enhances the security of other critical
-areas of computer systems by providing dynamic access governance, minimizing
-insider threats, and supporting dynamic policy enforcement while ensuring that
-the needed balance between security and user productivity remains a top
-priority. We prove via comparative analyses that the model is precise and
-scalable.</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2501.06281v1</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2501.06281v1</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2501.06281v1']</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-01-14T00:02:02Z</t>
+          <t>2025-01-14T00:04:35Z</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
-        <is>
-          <t>Distributed Identity for Zero Trust and Segmented Access Control: A
-  Novel Approach to Securing Network Infrastructure</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Sina Ahmadi</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>"Distributed Identity" refers to the transition from centralized identity
-systems using Decentralized Identifiers (DID) and Verifiable Credentials (VC)
-for secure and privacy-preserving authentications. With distributed identity,
-control of identity data is returned to the user, making credential-based
-attacks impossible due to the lack of a single point of failure. This study
-assesses the security improvements achieved when distributed identity is
-employed with the ZTA principle, particularly concerning lateral movements
-within segmented networks. It also considers areas such as the implementation
-specifications of the framework, the advantages and disadvantages of the method
-to organizations, and the issues of compatibility and generalizability.
-Furthermore, the study highlights privacy and regulatory compliance, including
-the General Data Protection Regulation (GDPR) and California Consumer Data
-Privacy Act (CCPA), analyzing potential solutions to these problems. The study
-implies that adopting distributed identities can enhance overall security
-postures by an order of magnitude, providing contextual and least-privilege
-authorization and user privacy. The research recommends refining technical
-standards, expanding the use of distributed identity in practice, and
-discussing its applications for the contemporary digital security landscape.</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2501.09032v1</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2501.09032v1</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2501.09032v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2025-01-14T00:04:35Z</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
         <is>
           <t>Adaptive Cybersecurity: Dynamically Retrainable Firewalls for Real-Time
   Network Protection</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Sina Ahmadi</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>The growing complexity of cyber attacks has necessitated the evolution of
 firewall technologies from static models to adaptive, machine learning-driven
@@ -6331,19 +6276,74 @@
 continue to evolve.</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2501.09033v1</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2501.09033v1</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2501.09033v1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-01-14T00:02:02Z</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Distributed Identity for Zero Trust and Segmented Access Control: A
+  Novel Approach to Securing Network Infrastructure</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Sina Ahmadi</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>"Distributed Identity" refers to the transition from centralized identity
+systems using Decentralized Identifiers (DID) and Verifiable Credentials (VC)
+for secure and privacy-preserving authentications. With distributed identity,
+control of identity data is returned to the user, making credential-based
+attacks impossible due to the lack of a single point of failure. This study
+assesses the security improvements achieved when distributed identity is
+employed with the ZTA principle, particularly concerning lateral movements
+within segmented networks. It also considers areas such as the implementation
+specifications of the framework, the advantages and disadvantages of the method
+to organizations, and the issues of compatibility and generalizability.
+Furthermore, the study highlights privacy and regulatory compliance, including
+the General Data Protection Regulation (GDPR) and California Consumer Data
+Privacy Act (CCPA), analyzing potential solutions to these problems. The study
+implies that adopting distributed identities can enhance overall security
+postures by an order of magnitude, providing contextual and least-privilege
+authorization and user privacy. The research recommends refining technical
+standards, expanding the use of distributed identity in practice, and
+discussing its applications for the contemporary digital security landscape.</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2501.09033v1</t>
+          <t>http://arxiv.org/abs/2501.09032v1</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>http://arxiv.org/pdf/2501.09033v1</t>
+          <t>http://arxiv.org/pdf/2501.09032v1</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>['http://arxiv.org/pdf/2501.09033v1']</t>
+          <t>['http://arxiv.org/pdf/2501.09032v1']</t>
         </is>
       </c>
     </row>
@@ -6511,124 +6511,21 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-02-11T18:59:32Z</t>
+          <t>2025-03-03T17:32:19Z</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
-        <is>
-          <t>Quantum-driven Zero Trust Framework with Dynamic Anomaly Detection in 7G
-  Technology: A Neural Network Approach</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Shakil Ahmed, Ibne Farabi Shihab, Ashfaq Khokhar</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>As cyber threats become more complex, modern networks struggle to balance
-security, scalability, and computational efficiency. While quantum computing
-offers a promising solution, adoption is limited by scalability constraints,
-inefficiencies in data encoding, and high computational costs. To address these
-challenges, we propose the Quantum Neural Network-Enhanced Zero Trust Framework
-(QNN-ZTF), integrating Zero Trust Architecture, Intrusion Detection Systems,
-and Quantum Neural Networks (QNNs) for enhanced security. Leveraging
-superposition, entanglement, and variational optimization, QNN-ZTF enables
-real-time anomaly detection and adaptive policy enforcement. Key contributions
-include a hybrid quantum-classical architecture for scalability, dynamic
-anomaly scoring for improved detection accuracy, and quantum micro-segmentation
-to contain threats and restrict lateral movement. Evaluation results show
-improved cyber threat mitigation, demonstrating the framework's effectiveness
-in reducing false positives and response times. This research establishes a
-scalable, adaptive, and quantum-optimized cybersecurity model, advancing
-quantum-enhanced security for next-generation networks.</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2502.07779v1</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2502.07779v1</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2502.07779v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2025-02-14T16:38:08Z</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>TrustZero -- open, verifiable and scalable zero-trust</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Adrian-Tudor Dumitrescu, Johan Pouwelse</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>We present a passport-level trust token for Europe. In an era of escalating
-cyber threats fueled by global competition in economic, military, and
-technological domains, traditional security models are proving inadequate. The
-rise of advanced attacks exploiting zero-day vulnerabilities, supply chain
-infiltration, and system interdependencies underscores the need for a paradigm
-shift in cybersecurity. Zero Trust Architecture (ZTA) emerges as a
-transformative framework that replaces implicit trust with continuous
-verification of identity and granular access control. This thesis introduces
-TrustZero, a scalable layer of zero-trust security built around a universal
-"trust token" - a non-revocable self-sovereign identity with cryptographic
-signatures to enable robust, mathematically grounded trust attestations. By
-integrating ZTA principles with cryptography, TrustZero establishes a secure
-web-of-trust framework adaptable to legacy systems and inter-organisational
-communication.</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2502.10281v2</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2502.10281v2</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2502.10281v2']</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2025-03-03T17:32:19Z</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
         <is>
           <t>Zero-Trust Artificial Intelligence Model Security Based on Moving Target
   Defense and Content Disarm and Reconstruction</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Daniel Gilkarov, Ran Dubin</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>This paper examines the challenges in distributing AI models through model
 zoos and file transfer mechanisms. Despite advancements in security measures,
@@ -6646,40 +6543,40 @@
 repositories and actual malware attacks from the HuggingFace model zoo.</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2503.01758v1</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2503.01758v1</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2503.01758v1']</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>2025-03-12T20:54:22Z</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>A Comprehensive Review on Understanding the Decentralized and
   Collaborative Approach in Machine Learning</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Sarwar Saif, Md Jahirul Islam, Md. Zihad Bin Jahangir, Parag Biswas, Abdur Rashid, MD Abdullah Al Nasim, Kishor Datta Gupta</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>The arrival of Machine Learning (ML) completely changed how we can unlock
 valuable information from data. Traditional methods, where everything was
@@ -6706,40 +6603,40 @@
 the way for a bright future for this groundbreaking technology.</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2503.09833v1</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2503.09833v1</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2503.09833v1']</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>2025-03-21T10:20:06Z</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Privacy Enhanced QKD Networks: Zero Trust Relay Architecture based on
   Homomorphic Encryption</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Aitor Brazaola-Vicario, Oscar Lage, Julen Bernabé-Rodríguez, Eduardo Jacob, Jasone Astorga</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>Quantum key distribution (QKD) enables unconditionally secure symmetric key
 exchange between parties. However, terrestrial fibre-optic links face inherent
@@ -6765,40 +6662,90 @@
 QKD networks, greatly reducing reliance on fully trusted infrastructure.</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2503.17011v1</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2503.17011v1</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2503.17011v1']</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-02-14T16:38:08Z</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TrustZero -- open, verifiable and scalable zero-trust</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Adrian-Tudor Dumitrescu, Johan Pouwelse</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>We present a passport-level trust token for Europe. In an era of escalating
+cyber threats fueled by global competition in economic, military, and
+technological domains, traditional security models are proving inadequate. The
+rise of advanced attacks exploiting zero-day vulnerabilities, supply chain
+infiltration, and system interdependencies underscores the need for a paradigm
+shift in cybersecurity. Zero Trust Architecture (ZTA) emerges as a
+transformative framework that replaces implicit trust with continuous
+verification of identity and granular access control. This thesis introduces
+TrustZero, a scalable layer of zero-trust security built around a universal
+"trust token" - a non-revocable self-sovereign identity with cryptographic
+signatures to enable robust, mathematically grounded trust attestations. By
+integrating ZTA principles with cryptography, TrustZero establishes a secure
+web-of-trust framework adaptable to legacy systems and inter-organisational
+communication.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2502.10281v2</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2502.10281v2</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2502.10281v2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>2025-03-24T00:37:14Z</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>The Human-Machine Identity Blur: A Unified Framework for Cybersecurity
   Risk Management in 2025</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>Kush Janani</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>The modern enterprise is facing an unprecedented surge in digital identities,
 with machine identities now significantly outnumbering human identities. This
@@ -6819,40 +6766,40 @@
 directions as AI-driven systems become increasingly autonomous.</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2503.18255v1</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2503.18255v1</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2503.18255v1']</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>2025-03-24T01:56:30Z</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Byzantine-Resilient Over-the-Air Federated Learning under Zero-Trust
   Architecture</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Jiacheng Yao, Wei Shi, Wei Xu, Zhaohui Yang, A. Lee Swindlehurst, Dusit Niyato</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>Over-the-air computation (AirComp) has emerged as an essential approach for
 enabling communication-efficient federated learning (FL) over wireless
@@ -6877,39 +6824,39 @@
 methods in terms of both test accuracy and convergence rate.</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2503.18284v1</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2503.18284v1</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2503.18284v1']</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>2025-04-06T08:49:05Z</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Redefining Information Freshness: AoGI for Generative AI in 6G Networks</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Yuquan Xiao, Qinghe Du, Wenchi Cheng, George K. Karagiannidis, Arumugam Nallanathan, Mohsen Guizani</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>Generative Artificial Intelligence (GenAI) is playing an increasingly
 important role in enriching and facilitating human life by generating various
@@ -6935,40 +6882,40 @@
 timeliness guarantees for real-time GenAI services.</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2504.04414v1</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2504.04414v1</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2504.04414v1']</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>2025-04-07T20:29:11Z</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Towards Zero Trust Security in Connected Vehicles: A Comprehensive
   Survey</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Malak Annabi, Abdelhafid Zeroual, Nadhir Messai</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Zero Trust is the new cybersecurity model that challenges the traditional one
 by promoting continuous verification of users, devices, and applications,
@@ -6996,40 +6943,40 @@
 dynamic nature of vehicular communication systems.</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2504.05485v1</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2504.05485v1</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2504.05485v1']</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>2025-04-08T17:41:04Z</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>A Case for Network-wide Orchestration of Host-based Intrusion Detection
   and Response</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Mark Timmons, Daniel Lukaszewski, Geoffrey Xie</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>Recent cyber incidents and the push for zero trust security underscore the
 necessity of monitoring host-level events. However, current host-level
@@ -7045,40 +6992,40 @@
 orchestration system is able to defend against the attacks effectively.</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2504.06241v1</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2504.06241v1</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2504.06241v1']</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>2025-04-16T11:26:54Z</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>The Evolution of Zero Trust Architecture (ZTA) from Concept to
   Implementation</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Md Nasiruzzaman, Maaruf Ali, Iftekhar Salam, Mahdi H. Miraz</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>Zero Trust Architecture (ZTA) is one of the paradigm changes in
 cybersecurity, from the traditional perimeter-based model to perimeterless.
@@ -7097,98 +7044,40 @@
 cyber threats.</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2504.11984v1</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2504.11984v1</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2504.11984v1']</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2025-04-20T13:00:34Z</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Rethinking trust in the digital age: An investigation of zero trust
-  architecture's social consequences on organizational culture, collaboration,
-  and knowledge sharing</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Ganiyu Oladimeji</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>As cyber threats escalate, Zero Trust Architecture (ZTA) replaces outdated
-perimeter security with strict never trust, always verify protocols. However,
-ZTA's dual nature as both technical infrastructure and social intervention
-creates an unresolved tension: its very mechanisms for security may
-systematically erode the trust foundations enabling effective collaboration.
-This integrative research combines case study analysis, employee surveys, and
-social network mapping reveals how ZTA disrupts knowledge-sharing,
-disproportionately hindering low-altruism employees, while surveillance erodes
-collective psychological ownership. Networked organizations, reliant on fluid
-trust, face fragmentation risks. Mitigation strategies include adaptive
-authorization frameworks using behavioral analytics and transparent
-communication reframing security as shared responsibility. Interdepartmental
-collaboration in security design preserves organizational trust structures
-identified through sociometric mapping. This research provides a framework
-balancing technical rigor with cultural sensitivity, proving cybersecurity can
-coexist with innovation by aligning verification with organizational
-psychology. The findings pioneer a paradigm where security and trust evolve
-synergistically critical for digital resilience in hybrid work environments.
-Future security must harmonize protocols with trust cultivation, ensuring
-defenses adapt to social dynamics driving modern enterprises.</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/abs/2504.14601v1</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>http://arxiv.org/pdf/2504.14601v1</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>['http://arxiv.org/pdf/2504.14601v1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>2025-04-20T23:06:03Z</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Establishing Workload Identity for Zero Trust CI/CD: From Secrets to
   SPIFFE-Based Authentication</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>Surya Teja Avirneni</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>CI/CD systems have become privileged automation agents in modern
 infrastructure, but their identity is still based on secrets or temporary
@@ -7207,40 +7096,40 @@
 CI/CD.</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2504.14760v1</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2504.14760v1</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2504.14760v1']</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>2025-04-20T23:08:17Z</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Decoupling Identity from Access: Credential Broker Patterns for Secure
   CI/CD</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>Surya Teja Avirneni</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>Credential brokers offer a way to separate identity from access in CI/CD
 systems. This paper shows how verifiable identities issued at runtime, such as
@@ -7253,39 +7142,39 @@
 secure CI/CD identity architecture.</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2504.14761v1</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2504.14761v1</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2504.14761v1']</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>2025-04-21T00:25:35Z</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Intent-Aware Authorization for Zero Trust CI/CD</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Surya Teja Avirneni</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>This paper introduces intent-aware authorization for Zero Trust CI/CD
 systems. Identity establishes who is making the request, but additional signals
@@ -7297,39 +7186,39 @@
 series on Zero Trust CI/CD design patterns.</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2504.14777v1</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2504.14777v1</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2504.14777v1']</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>2025-04-24T17:21:00Z</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Identity Control Plane: The Unifying Layer for Zero Trust Infrastructure</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Surya Teja Avirneni</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>This paper introduces the Identity Control Plane (ICP), an architectural
 framework for enforcing identity-aware Zero Trust access across human users,
@@ -7345,40 +7234,40 @@
 this work has been published.</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2504.17759v1</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2504.17759v1</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2504.17759v1']</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>2025-04-28T16:22:21Z</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Securing GenAI Multi-Agent Systems Against Tool Squatting: A Zero Trust
   Registry-Based Approach</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Vineeth Sai Narajala, Ken Huang, Idan Habler</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>The rise of generative AI (GenAI) multi-agent systems (MAS) necessitates
 standardized protocols enabling agents to discover and interact with external
@@ -7399,40 +7288,40 @@
 for secure tool integration in production environments.</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2504.19951v1</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2504.19951v1</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2504.19951v1']</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>2025-05-01T18:41:00Z</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>AI-Driven IRM: Transforming insider risk management with adaptive
   scoring and LLM-based threat detection</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Lokesh Koli, Shubham Kalra, Rohan Thakur, Anas Saifi, Karanpreet Singh</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>Insider threats pose a significant challenge to organizational security,
 often evading traditional rule-based detection systems due to their subtlety
@@ -7457,40 +7346,40 @@
 environments.</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2505.03796v1</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2505.03796v1</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2505.03796v1']</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>2025-05-13T22:36:17Z</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>SAFE-SiP: Secure Authentication Framework for System-in-Package Using
   Multi-party Computation</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Ishraq Tashdid, Tasnuva Farheen, Sazadur Rahman</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>The emergence of chiplet-based heterogeneous integration is transforming the
 semiconductor, AI, and high-performance computing industries by enabling
@@ -7513,40 +7402,40 @@
 of 2^192, offering a highly efficient and scalable security solution.</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>http://arxiv.org/abs/2505.09002v1</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://arxiv.org/pdf/2505.09002v1</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['http://arxiv.org/pdf/2505.09002v1']</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>2025-05-15T08:04:39Z</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Basilisk: A 34 mm2 End-to-End Open-Source 64-bit Linux-Capable RISC-V
   SoC in 130nm BiCMOS</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Philippe Sauter, Thomas Benz, Paul Scheffler, Martin Povišer, Frank K. Gürkaynak, Luca Benini</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>End-to-end open-source electronic design automation (OSEDA) enables a
 collaborative approach to chip design conducive to supply chain diversification
@@ -7567,19 +7456,130 @@
 efficiency of 18.9 DP MFLOP/s/W at 0.88 V.</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2505.10060v1</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2505.10060v1</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2505.10060v1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-02-11T18:59:32Z</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Quantum-driven Zero Trust Framework with Dynamic Anomaly Detection in 7G
+  Technology: A Neural Network Approach</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Shakil Ahmed, Ibne Farabi Shihab, Ashfaq Khokhar</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>As cyber threats become more complex, modern networks struggle to balance
+security, scalability, and computational efficiency. While quantum computing
+offers a promising solution, adoption is limited by scalability constraints,
+inefficiencies in data encoding, and high computational costs. To address these
+challenges, we propose the Quantum Neural Network-Enhanced Zero Trust Framework
+(QNN-ZTF), integrating Zero Trust Architecture, Intrusion Detection Systems,
+and Quantum Neural Networks (QNNs) for enhanced security. Leveraging
+superposition, entanglement, and variational optimization, QNN-ZTF enables
+real-time anomaly detection and adaptive policy enforcement. Key contributions
+include a hybrid quantum-classical architecture for scalability, dynamic
+anomaly scoring for improved detection accuracy, and quantum micro-segmentation
+to contain threats and restrict lateral movement. Evaluation results show
+improved cyber threat mitigation, demonstrating the framework's effectiveness
+in reducing false positives and response times. This research establishes a
+scalable, adaptive, and quantum-optimized cybersecurity model, advancing
+quantum-enhanced security for next-generation networks.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2502.07779v1</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2502.07779v1</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>['http://arxiv.org/pdf/2502.07779v1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-04-20T13:00:34Z</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Rethinking trust in the digital age: An investigation of zero trust
+  architecture's social consequences on organizational culture, collaboration,
+  and knowledge sharing</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Ganiyu Oladimeji</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>As cyber threats escalate, Zero Trust Architecture (ZTA) replaces outdated
+perimeter security with strict never trust, always verify protocols. However,
+ZTA's dual nature as both technical infrastructure and social intervention
+creates an unresolved tension: its very mechanisms for security may
+systematically erode the trust foundations enabling effective collaboration.
+This integrative research combines case study analysis, employee surveys, and
+social network mapping reveals how ZTA disrupts knowledge-sharing,
+disproportionately hindering low-altruism employees, while surveillance erodes
+collective psychological ownership. Networked organizations, reliant on fluid
+trust, face fragmentation risks. Mitigation strategies include adaptive
+authorization frameworks using behavioral analytics and transparent
+communication reframing security as shared responsibility. Interdepartmental
+collaboration in security design preserves organizational trust structures
+identified through sociometric mapping. This research provides a framework
+balancing technical rigor with cultural sensitivity, proving cybersecurity can
+coexist with innovation by aligning verification with organizational
+psychology. The findings pioneer a paradigm where security and trust evolve
+synergistically critical for digital resilience in hybrid work environments.
+Future security must harmonize protocols with trust cultivation, ensuring
+defenses adapt to social dynamics driving modern enterprises.</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2505.10060v1</t>
+          <t>http://arxiv.org/abs/2504.14601v1</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>http://arxiv.org/pdf/2505.10060v1</t>
+          <t>http://arxiv.org/pdf/2504.14601v1</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>['http://arxiv.org/pdf/2505.10060v1']</t>
+          <t>['http://arxiv.org/pdf/2504.14601v1']</t>
         </is>
       </c>
     </row>
